--- a/fhir/ig/tei/0.2.1/CodeSystem-CSPractitionerTipoRolLE.xlsx
+++ b/fhir/ig/tei/0.2.1/CodeSystem-CSPractitionerTipoRolLE.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
   <si>
     <t>Property</t>
   </si>
@@ -523,7 +523,9 @@
       <c r="C2" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>43</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
@@ -535,7 +537,9 @@
       <c r="C3" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>45</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
@@ -547,7 +551,9 @@
       <c r="C4" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>47</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
@@ -559,7 +565,9 @@
       <c r="C5" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>49</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
@@ -571,7 +579,9 @@
       <c r="C6" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>51</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
@@ -583,7 +593,9 @@
       <c r="C7" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>53</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
@@ -595,7 +607,9 @@
       <c r="C8" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
